--- a/audit-seo-p4.xlsx
+++ b/audit-seo-p4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Catégorie</t>
   </si>
@@ -69,33 +69,24 @@
     <t xml:space="preserve">inscrire un titre car leur contenu apparais dans les moteurs de recherche</t>
   </si>
   <si>
+    <t xml:space="preserve">Openclassrooms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise tittle est  vide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on ne vois pas le non de l agence dans les moteur de recherche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">toujours remplir c'est balise afin d'attirer des visiteur et être plus opti pour gooogle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter un titre accrocheur avec des mots clés pour attiré des visiteurs</t>
+  </si>
+  <si>
     <t>Openclassrooms</t>
   </si>
   <si>
-    <t xml:space="preserve">La balise tittle est  vide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">on ne vois pas le non de l agence dans les moteur de recherche </t>
-  </si>
-  <si>
-    <t xml:space="preserve">toujours remplir c'est balise afin d'attirer des visiteur et être plus opti pour gooogle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter un titre accrocheur avec des mots clés pour attiré des visiteurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probleme sur l'ordre des titres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dans le code je vois que h2 apparais apres h3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">respecter une hiérarchie </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> les titres h2 doit être suivi de h3 pas l'inverse</t>
-  </si>
-  <si>
     <t xml:space="preserve">sur la barre de navigation lien en trop</t>
   </si>
   <si>
@@ -108,16 +99,7 @@
     <t xml:space="preserve">wcag 2.4.4 linkpurpose level A</t>
   </si>
   <si>
-    <t xml:space="preserve">dans le footer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mise en page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bien aligner les element sous le titre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aligne  les mot de la liste sous annuaire et partenaire plus vers la gauche </t>
+    <t>acce</t>
   </si>
   <si>
     <t xml:space="preserve">version desktop</t>
@@ -144,18 +126,6 @@
     <t xml:space="preserve">ne pas avoir les symbole au centre mais les aligne vers la gauche avec le nom du site correspondant </t>
   </si>
   <si>
-    <t xml:space="preserve">creer des liens vers les réseaux sociaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on vois pas notre adresse vers les différent réseaux sociaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mettre nos coordonné visible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouter nos adresse pres des symbole qui correspondent </t>
-  </si>
-  <si>
     <t xml:space="preserve">La couleurs des icones </t>
   </si>
   <si>
@@ -213,10 +183,10 @@
     <t xml:space="preserve">quand je regarde le code  h1 visible </t>
   </si>
   <si>
-    <t xml:space="preserve">mettre un titre h1 sur chaque page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rajouter un titre a cette page </t>
+    <t xml:space="preserve">Avoir la bonne couleur afin de le rendre visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changer de la police</t>
   </si>
   <si>
     <t xml:space="preserve">Sur la page 2 le lien accueil est pas visible </t>
@@ -225,7 +195,7 @@
     <t xml:space="preserve">acueil est tous a droite on le vois pas bien </t>
   </si>
   <si>
-    <t xml:space="preserve">bien disposer nos élément de façcon a les rendre visible</t>
+    <t xml:space="preserve">bien disposer nos élément de façcon à les rendre visible</t>
   </si>
   <si>
     <t xml:space="preserve">decale vers la gauche les informations </t>
@@ -333,9 +303,6 @@
     <t>W3schools</t>
   </si>
   <si>
-    <t>seo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lien partenaire </t>
   </si>
   <si>
@@ -346,6 +313,33 @@
   </si>
   <si>
     <t xml:space="preserve">Retirer certain lien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Défaut lient boutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on a 2 bouton qui nous redirige vers la même page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaque bouton dois rediriger vers un lien particulier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image avec du texte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">on des citation dans le site mais on a pris une photo qu'on a collé au site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecrire manuellement les ciatations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mise en forme sur le htlm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du code qui ne se trouve pas au bonne endroit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">le language de mise en forme dois être mis dans le css</t>
   </si>
 </sst>
 </file>
@@ -391,7 +385,7 @@
       <sz val="12.000000"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +408,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor theme="9" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0"/>
+        <bgColor theme="2" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="0"/>
+        <bgColor theme="0" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -445,7 +451,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -476,21 +482,32 @@
     <xf fontId="5" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1026,7 @@
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" width="17.3359375"/>
     <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="36.88671875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="42.10546875"/>
+    <col customWidth="1" min="3" max="3" style="1" width="43.5546875"/>
     <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="46.21484375"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="57.99609375"/>
     <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="29.4453125"/>
@@ -1102,7 +1119,7 @@
       <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1123,401 +1140,395 @@
         <v>22</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="47.25" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" ht="36" customHeight="1">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="8" ht="64.5" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" ht="51" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" s="15" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" ht="44.25" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" ht="45.75" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="47.25" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" ht="47.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="32.25" customHeight="1">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="64.5" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="46.5" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="45.75" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="B15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" ht="32.25" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" ht="33" customHeight="1">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" ht="51" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" ht="45.75" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="46.5" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" ht="52.5" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" ht="44.25" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" ht="45.75" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="B19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" ht="31.5" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" ht="47.25" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" ht="32.25" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" ht="46.5" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" ht="32.25" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" ht="33" customHeight="1">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" ht="45.75" customHeight="1">
+      <c r="D20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="33" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>84</v>
+      <c r="B21" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" ht="46.5" customHeight="1">
+    </row>
+    <row r="22" ht="33.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" ht="31.5" customHeight="1">
-      <c r="A23" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" s="20" customFormat="1" ht="57" customHeight="1">
+      <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="B23" s="22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" ht="33" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="C23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" ht="31.5" customHeight="1">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="B24" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" ht="33.75" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="C24" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D24" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" ht="28.5" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="C25" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" ht="57" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" ht="33" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="9"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1525,192 +1536,157 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
@@ -2645,11 +2621,6 @@
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
